--- a/Mars Project.xlsx
+++ b/Mars Project.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MVP Studio-Intern\Task2\OnboardingTask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MVP Studio-Intern\Automation\MVPStudio.OnBoardingTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDCF07D-9545-4171-ACA4-9E905F2D9C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5F1360-2344-4EB6-B384-93B7130991DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{8E594B6B-742B-4590-AC85-E408D52CA1D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{8E594B6B-742B-4590-AC85-E408D52CA1D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="3" r:id="rId1"/>
     <sheet name="Language" sheetId="1" r:id="rId2"/>
     <sheet name="Skills" sheetId="2" r:id="rId3"/>
+    <sheet name="Education" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Language!$C$2:$C$6</definedName>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="571">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -329,9 +331,6 @@
   </si>
   <si>
     <t>User shouldn't be able to add the language</t>
-  </si>
-  <si>
-    <t>User is  able to add language and level successfully</t>
   </si>
   <si>
     <t>User  cancelled the process successfully</t>
@@ -2692,12 +2691,18 @@
   <si>
     <t>User can open and log in to the application and perform the Add, Edit, and Delete operations using a different browser</t>
   </si>
+  <si>
+    <t>TC_051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is  able to add language and level successfully </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2728,13 +2733,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2747,7 +2745,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2757,6 +2755,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2873,7 +2883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3049,6 +3059,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3060,6 +3082,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3069,17 +3094,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3087,91 +3112,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3539,8 +3492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5EE3E3-41C5-4AEF-889A-DA2055FFD247}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3590,7 +3543,7 @@
         <v>50</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
@@ -3598,16 +3551,16 @@
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>81</v>
@@ -3616,10 +3569,10 @@
         <v>88</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>51</v>
@@ -3633,28 +3586,28 @@
         <v>9</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>83</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>51</v>
@@ -3668,28 +3621,28 @@
         <v>36</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>51</v>
@@ -3699,32 +3652,32 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="62" t="s">
-        <v>335</v>
+      <c r="B5" s="66" t="s">
+        <v>334</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J5" s="22" t="s">
         <v>51</v>
@@ -3734,28 +3687,28 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="64"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>157</v>
-      </c>
       <c r="H6" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J6" s="22" t="s">
         <v>51</v>
@@ -3765,32 +3718,32 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="62" t="s">
-        <v>334</v>
+      <c r="B7" s="66" t="s">
+        <v>333</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>159</v>
-      </c>
       <c r="H7" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J7" s="22" t="s">
         <v>51</v>
@@ -3800,28 +3753,28 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A8" s="64"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J8" s="22" t="s">
         <v>51</v>
@@ -3835,28 +3788,28 @@
         <v>43</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>163</v>
-      </c>
       <c r="H9" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J9" s="22" t="s">
         <v>51</v>
@@ -3865,50 +3818,52 @@
     </row>
     <row r="10" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="G10" s="61" t="s">
         <v>450</v>
       </c>
-      <c r="G10" s="61" t="s">
-        <v>451</v>
-      </c>
       <c r="H10" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J10" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>81</v>
@@ -3917,10 +3872,10 @@
         <v>88</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>51</v>
@@ -3946,8 +3901,8 @@
   </sheetPr>
   <dimension ref="A1:Z712"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D43" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3997,7 +3952,7 @@
         <v>50</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -4016,10 +3971,10 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="69" t="s">
         <v>84</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -4029,7 +3984,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>81</v>
@@ -4066,8 +4021,8 @@
       <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="22" t="s">
         <v>6</v>
       </c>
@@ -4075,7 +4030,7 @@
         <v>87</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>83</v>
@@ -4112,8 +4067,8 @@
       <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
@@ -4131,7 +4086,7 @@
         <v>57</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J4" s="19" t="s">
         <v>51</v>
@@ -4156,19 +4111,19 @@
       <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>61</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" s="39"/>
       <c r="H5" s="10" t="s">
@@ -4200,8 +4155,8 @@
       <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="22" t="s">
         <v>10</v>
       </c>
@@ -4209,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>62</v>
@@ -4221,7 +4176,7 @@
         <v>92</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>51</v>
@@ -4274,35 +4229,35 @@
       <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="C8" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="77" t="s">
-        <v>340</v>
-      </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="79" t="s">
+      <c r="F8" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="80" t="s">
-        <v>462</v>
-      </c>
-      <c r="I8" s="81" t="s">
+      <c r="G8" s="22"/>
+      <c r="H8" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="82" t="s">
+      <c r="J8" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="83" t="s">
+      <c r="K8" s="6" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="3"/>
@@ -4322,37 +4277,37 @@
       <c r="Z8" s="9"/>
     </row>
     <row r="9" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="78" t="s">
-        <v>232</v>
-      </c>
-      <c r="C9" s="77" t="s">
+      <c r="B9" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="E9" s="79" t="s">
+      <c r="D9" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="46" t="s">
+        <v>516</v>
+      </c>
+      <c r="G9" s="39" t="s">
         <v>517</v>
       </c>
-      <c r="G9" s="85" t="s">
-        <v>518</v>
-      </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I9" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="82" t="s">
+      <c r="I9" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="J9" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="83" t="s">
+      <c r="K9" s="6" t="s">
         <v>51</v>
       </c>
       <c r="L9" s="3"/>
@@ -4372,37 +4327,37 @@
       <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="88" t="s">
-        <v>230</v>
-      </c>
-      <c r="C10" s="77" t="s">
+      <c r="B10" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="77" t="s">
-        <v>259</v>
-      </c>
-      <c r="E10" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" s="90" t="s">
+      <c r="D10" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="85" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="I10" s="81" t="s">
-        <v>497</v>
-      </c>
-      <c r="J10" s="82" t="s">
+      <c r="J10" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="83" t="s">
+      <c r="K10" s="6" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="3"/>
@@ -4422,33 +4377,33 @@
       <c r="Z10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="91"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="77" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="77" t="s">
-        <v>260</v>
-      </c>
-      <c r="E11" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="86" t="s">
-        <v>496</v>
-      </c>
-      <c r="I11" s="81" t="s">
-        <v>498</v>
-      </c>
-      <c r="J11" s="82" t="s">
+      <c r="D11" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="J11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="83" t="s">
+      <c r="K11" s="6" t="s">
         <v>51</v>
       </c>
       <c r="L11" s="3"/>
@@ -4468,33 +4423,33 @@
       <c r="Z11" s="9"/>
     </row>
     <row r="12" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="91"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="77" t="s">
+      <c r="A12" s="72"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="79" t="s">
+      <c r="E12" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="84" t="s">
+      <c r="F12" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="77" t="s">
+      <c r="G12" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="86" t="s">
+      <c r="H12" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="82" t="s">
+      <c r="I12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="83" t="s">
+      <c r="K12" s="6" t="s">
         <v>51</v>
       </c>
       <c r="L12" s="3"/>
@@ -4514,31 +4469,31 @@
       <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="93"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="77" t="s">
+      <c r="A13" s="73"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="E13" s="89" t="s">
-        <v>262</v>
-      </c>
-      <c r="F13" s="84" t="s">
-        <v>503</v>
-      </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="86" t="s">
+      <c r="F13" s="46" t="s">
+        <v>502</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="I13" s="81" t="s">
-        <v>500</v>
-      </c>
-      <c r="J13" s="82" t="s">
+      <c r="J13" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="83" t="s">
+      <c r="K13" s="6" t="s">
         <v>51</v>
       </c>
       <c r="L13" s="3"/>
@@ -4558,17 +4513,17 @@
       <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="77"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="83"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -4586,37 +4541,39 @@
       <c r="Z14" s="9"/>
     </row>
     <row r="15" spans="1:26" ht="87" x14ac:dyDescent="0.35">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="95" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="77" t="s">
+      <c r="B15" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="77" t="s">
-        <v>210</v>
-      </c>
-      <c r="E15" s="79" t="s">
+      <c r="D15" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="84" t="s">
-        <v>519</v>
-      </c>
-      <c r="G15" s="77" t="s">
+      <c r="F15" s="46" t="s">
+        <v>518</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H15" s="86" t="s">
-        <v>501</v>
-      </c>
-      <c r="I15" s="81" t="s">
-        <v>215</v>
-      </c>
-      <c r="J15" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="K15" s="83"/>
+      <c r="J15" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -4634,33 +4591,35 @@
       <c r="Z15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="87" x14ac:dyDescent="0.35">
-      <c r="A16" s="91"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="77" t="s">
+      <c r="A16" s="72"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="77" t="s">
-        <v>239</v>
-      </c>
-      <c r="E16" s="79" t="s">
+      <c r="D16" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="84" t="s">
-        <v>520</v>
-      </c>
-      <c r="G16" s="77">
+      <c r="F16" s="46" t="s">
+        <v>519</v>
+      </c>
+      <c r="G16" s="22">
         <v>12334455678</v>
       </c>
-      <c r="H16" s="86" t="s">
-        <v>501</v>
-      </c>
-      <c r="I16" s="81" t="s">
-        <v>217</v>
-      </c>
-      <c r="J16" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="K16" s="83"/>
+      <c r="H16" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -4678,33 +4637,35 @@
       <c r="Z16" s="9"/>
     </row>
     <row r="17" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="91"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="77" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="77" t="s">
-        <v>211</v>
-      </c>
-      <c r="E17" s="79" t="s">
+      <c r="D17" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="90" t="s">
-        <v>521</v>
-      </c>
-      <c r="G17" s="77" t="s">
-        <v>218</v>
-      </c>
-      <c r="H17" s="86" t="s">
-        <v>501</v>
-      </c>
-      <c r="I17" s="81" t="s">
-        <v>216</v>
-      </c>
-      <c r="J17" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="K17" s="83"/>
+      <c r="F17" s="56" t="s">
+        <v>520</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -4722,33 +4683,35 @@
       <c r="Z17" s="9"/>
     </row>
     <row r="18" spans="1:26" ht="87" x14ac:dyDescent="0.35">
-      <c r="A18" s="91"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="77" t="s">
+      <c r="A18" s="72"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="77" t="s">
-        <v>240</v>
-      </c>
-      <c r="E18" s="79" t="s">
+      <c r="D18" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="84" t="s">
-        <v>522</v>
-      </c>
-      <c r="G18" s="77" t="s">
-        <v>219</v>
-      </c>
-      <c r="H18" s="86" t="s">
-        <v>501</v>
-      </c>
-      <c r="I18" s="81" t="s">
-        <v>221</v>
-      </c>
-      <c r="J18" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="K18" s="83"/>
+      <c r="F18" s="46" t="s">
+        <v>521</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -4766,33 +4729,35 @@
       <c r="Z18" s="9"/>
     </row>
     <row r="19" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="91"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="77" t="s">
+      <c r="A19" s="72"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="77" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="79" t="s">
+      <c r="D19" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="84" t="s">
-        <v>523</v>
-      </c>
-      <c r="G19" s="77" t="s">
-        <v>220</v>
-      </c>
-      <c r="H19" s="86" t="s">
-        <v>501</v>
-      </c>
-      <c r="I19" s="81" t="s">
-        <v>222</v>
-      </c>
-      <c r="J19" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="K19" s="83"/>
+      <c r="F19" s="46" t="s">
+        <v>522</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -4810,33 +4775,33 @@
       <c r="Z19" s="9"/>
     </row>
     <row r="20" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="91"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="77" t="s">
+      <c r="A20" s="72"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>523</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E20" s="89" t="s">
+      <c r="I20" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="F20" s="84" t="s">
-        <v>524</v>
-      </c>
-      <c r="G20" s="77" t="s">
-        <v>245</v>
-      </c>
-      <c r="H20" s="86" t="s">
-        <v>242</v>
-      </c>
-      <c r="I20" s="97" t="s">
-        <v>244</v>
-      </c>
-      <c r="J20" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="K20" s="83"/>
+      <c r="J20" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" s="6"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -4854,33 +4819,33 @@
       <c r="Z20" s="9"/>
     </row>
     <row r="21" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="93"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="77" t="s">
+      <c r="A21" s="73"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>523</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="E21" s="89" t="s">
+      <c r="H21" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="F21" s="84" t="s">
-        <v>524</v>
-      </c>
-      <c r="G21" s="77" t="s">
-        <v>247</v>
-      </c>
-      <c r="H21" s="86" t="s">
-        <v>502</v>
-      </c>
-      <c r="I21" s="97" t="s">
-        <v>244</v>
-      </c>
-      <c r="J21" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="K21" s="83"/>
+      <c r="J21" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" s="6"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -4926,37 +4891,37 @@
       <c r="Z22" s="9"/>
     </row>
     <row r="23" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="88" t="s">
-        <v>266</v>
-      </c>
-      <c r="C23" s="77" t="s">
+      <c r="B23" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="77" t="s">
+      <c r="D23" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="79" t="s">
+      <c r="E23" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="90" t="s">
-        <v>263</v>
-      </c>
-      <c r="G23" s="77" t="s">
+      <c r="F23" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="86" t="s">
+      <c r="H23" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="J23" s="82" t="s">
+      <c r="I23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K23" s="83" t="s">
+      <c r="K23" s="6" t="s">
         <v>51</v>
       </c>
       <c r="L23" s="3"/>
@@ -4976,34 +4941,34 @@
       <c r="Z23" s="9"/>
     </row>
     <row r="24" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="91"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="77" t="s">
+      <c r="A24" s="72"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="79" t="s">
+      <c r="E24" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="90" t="s">
-        <v>463</v>
-      </c>
-      <c r="G24" s="77" t="s">
+      <c r="F24" s="56" t="s">
+        <v>462</v>
+      </c>
+      <c r="G24" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="86" t="s">
+      <c r="H24" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I24" s="81" t="s">
+      <c r="I24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="82" t="s">
+      <c r="J24" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="99" t="s">
-        <v>170</v>
+      <c r="K24" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -5022,35 +4987,35 @@
       <c r="Z24" s="9"/>
     </row>
     <row r="25" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="93"/>
-      <c r="B25" s="100" t="s">
+      <c r="A25" s="73"/>
+      <c r="B25" s="59" t="s">
+        <v>463</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="39" t="s">
         <v>464</v>
       </c>
-      <c r="C25" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="85" t="s">
-        <v>465</v>
-      </c>
-      <c r="E25" s="89" t="s">
+      <c r="E25" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>524</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="F25" s="90" t="s">
-        <v>525</v>
-      </c>
-      <c r="G25" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="I25" s="97" t="s">
-        <v>257</v>
-      </c>
-      <c r="J25" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="K25" s="99"/>
+      <c r="I25" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="13"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -5096,35 +5061,35 @@
       <c r="Z26" s="9"/>
     </row>
     <row r="27" spans="1:26" ht="58" x14ac:dyDescent="0.35">
-      <c r="A27" s="92" t="s">
-        <v>267</v>
-      </c>
-      <c r="B27" s="88" t="s">
-        <v>233</v>
-      </c>
-      <c r="C27" s="77" t="s">
+      <c r="A27" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="77" t="s">
-        <v>269</v>
-      </c>
-      <c r="E27" s="79" t="s">
+      <c r="D27" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="90" t="s">
-        <v>194</v>
-      </c>
-      <c r="G27" s="77"/>
-      <c r="H27" s="97" t="s">
-        <v>174</v>
-      </c>
-      <c r="I27" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="J27" s="82" t="s">
+      <c r="F27" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="J27" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K27" s="99" t="s">
+      <c r="K27" s="13" t="s">
         <v>51</v>
       </c>
       <c r="L27" s="3"/>
@@ -5144,33 +5109,33 @@
       <c r="Z27" s="9"/>
     </row>
     <row r="28" spans="1:26" ht="58" x14ac:dyDescent="0.35">
-      <c r="A28" s="92"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="77" t="s">
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="85" t="s">
-        <v>268</v>
-      </c>
-      <c r="E28" s="79" t="s">
+      <c r="D28" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="90" t="s">
-        <v>466</v>
-      </c>
-      <c r="G28" s="77" t="s">
+      <c r="F28" s="56" t="s">
+        <v>465</v>
+      </c>
+      <c r="G28" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="81" t="s">
-        <v>195</v>
-      </c>
-      <c r="I28" s="80" t="s">
-        <v>505</v>
-      </c>
-      <c r="J28" s="82" t="s">
+      <c r="H28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="J28" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="K28" s="99" t="s">
+      <c r="K28" s="13" t="s">
         <v>51</v>
       </c>
       <c r="L28" s="3"/>
@@ -5190,33 +5155,33 @@
       <c r="Z28" s="9"/>
     </row>
     <row r="29" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="92"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="77" t="s">
+      <c r="A29" s="69"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="85" t="s">
-        <v>270</v>
-      </c>
-      <c r="E29" s="79" t="s">
+      <c r="D29" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="G29" s="85" t="s">
-        <v>526</v>
-      </c>
-      <c r="H29" s="81" t="s">
-        <v>175</v>
-      </c>
-      <c r="I29" s="80" t="s">
-        <v>506</v>
-      </c>
-      <c r="J29" s="82" t="s">
+      <c r="F29" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="J29" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="K29" s="83" t="s">
+      <c r="K29" s="6" t="s">
         <v>51</v>
       </c>
       <c r="L29" s="3"/>
@@ -5265,12 +5230,12 @@
     </row>
     <row r="31" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C31" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" s="65" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="22" t="s">
@@ -5280,7 +5245,7 @@
         <v>64</v>
       </c>
       <c r="F31" s="56" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G31" s="22" t="s">
         <v>72</v>
@@ -5343,31 +5308,31 @@
     </row>
     <row r="33" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A33" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>280</v>
-      </c>
-      <c r="C33" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="C33" s="65" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F33" s="56" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G33" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="I33" s="10" t="s">
         <v>549</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>550</v>
       </c>
       <c r="J33" s="24" t="s">
         <v>51</v>
@@ -5421,19 +5386,19 @@
     </row>
     <row r="35" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="C35" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="C35" s="65" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>44</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F35" s="56" t="s">
         <v>75</v>
@@ -5496,35 +5461,35 @@
       <c r="Z36" s="9"/>
     </row>
     <row r="37" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="87" t="s">
-        <v>284</v>
-      </c>
-      <c r="B37" s="95" t="s">
-        <v>279</v>
-      </c>
-      <c r="C37" s="77" t="s">
+      <c r="A37" s="71" t="s">
+        <v>283</v>
+      </c>
+      <c r="B37" s="74" t="s">
+        <v>278</v>
+      </c>
+      <c r="C37" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="77" t="s">
-        <v>276</v>
-      </c>
-      <c r="E37" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="F37" s="90" t="s">
-        <v>198</v>
-      </c>
-      <c r="G37" s="77"/>
-      <c r="H37" s="97" t="s">
+      <c r="D37" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="I37" s="80" t="s">
-        <v>507</v>
-      </c>
-      <c r="J37" s="82" t="s">
+      <c r="G37" s="22"/>
+      <c r="H37" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="J37" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="83" t="s">
+      <c r="K37" s="6" t="s">
         <v>51</v>
       </c>
       <c r="L37" s="3"/>
@@ -5544,33 +5509,33 @@
       <c r="Z37" s="9"/>
     </row>
     <row r="38" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="91"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="77" t="s">
+      <c r="A38" s="72"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="85" t="s">
-        <v>277</v>
-      </c>
-      <c r="E38" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="F38" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="G38" s="77" t="s">
+      <c r="D38" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="G38" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="H38" s="81" t="s">
-        <v>195</v>
-      </c>
-      <c r="I38" s="80" t="s">
-        <v>507</v>
-      </c>
-      <c r="J38" s="82" t="s">
+      <c r="H38" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="J38" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="K38" s="83" t="s">
+      <c r="K38" s="6" t="s">
         <v>51</v>
       </c>
       <c r="L38" s="3"/>
@@ -5590,33 +5555,33 @@
       <c r="Z38" s="9"/>
     </row>
     <row r="39" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="93"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="77" t="s">
+      <c r="A39" s="73"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="85" t="s">
-        <v>278</v>
-      </c>
-      <c r="E39" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="90" t="s">
-        <v>200</v>
-      </c>
-      <c r="G39" s="85" t="s">
-        <v>526</v>
-      </c>
-      <c r="H39" s="81" t="s">
-        <v>175</v>
-      </c>
-      <c r="I39" s="80" t="s">
-        <v>506</v>
-      </c>
-      <c r="J39" s="82" t="s">
+      <c r="D39" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="J39" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="K39" s="83" t="s">
+      <c r="K39" s="6" t="s">
         <v>51</v>
       </c>
       <c r="L39" s="3"/>
@@ -5638,7 +5603,9 @@
     <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="37"/>
       <c r="B40" s="59"/>
-      <c r="C40" s="22"/>
+      <c r="C40" s="65" t="s">
+        <v>202</v>
+      </c>
       <c r="D40" s="39"/>
       <c r="E40" s="23"/>
       <c r="F40" s="56"/>
@@ -5664,37 +5631,37 @@
       <c r="Z40" s="9"/>
     </row>
     <row r="41" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="87" t="s">
-        <v>287</v>
-      </c>
-      <c r="B41" s="85" t="s">
-        <v>433</v>
-      </c>
-      <c r="C41" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="D41" s="77" t="s">
-        <v>413</v>
-      </c>
-      <c r="E41" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="84" t="s">
-        <v>201</v>
-      </c>
-      <c r="G41" s="77" t="s">
-        <v>469</v>
-      </c>
-      <c r="H41" s="81" t="s">
-        <v>172</v>
-      </c>
-      <c r="I41" s="80" t="s">
-        <v>508</v>
-      </c>
-      <c r="J41" s="82" t="s">
+      <c r="A41" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>432</v>
+      </c>
+      <c r="C41" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="J41" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K41" s="83" t="s">
+      <c r="K41" s="6" t="s">
         <v>51</v>
       </c>
       <c r="L41" s="3"/>
@@ -5714,33 +5681,33 @@
       <c r="Z41" s="9"/>
     </row>
     <row r="42" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="91"/>
-      <c r="B42" s="96" t="s">
-        <v>288</v>
-      </c>
-      <c r="C42" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="D42" s="77" t="s">
-        <v>285</v>
-      </c>
-      <c r="E42" s="89" t="s">
+      <c r="A42" s="72"/>
+      <c r="B42" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="F42" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="G42" s="77"/>
-      <c r="H42" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="I42" s="86" t="s">
-        <v>509</v>
-      </c>
-      <c r="J42" s="82" t="s">
+      <c r="G42" s="22"/>
+      <c r="H42" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="J42" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K42" s="83" t="s">
+      <c r="K42" s="6" t="s">
         <v>51</v>
       </c>
       <c r="L42" s="3"/>
@@ -5760,33 +5727,33 @@
       <c r="Z42" s="9"/>
     </row>
     <row r="43" spans="1:26" ht="58" x14ac:dyDescent="0.35">
-      <c r="A43" s="91"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="77" t="s">
-        <v>271</v>
-      </c>
-      <c r="D43" s="77" t="s">
-        <v>286</v>
-      </c>
-      <c r="E43" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="F43" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="G43" s="77" t="s">
+      <c r="A43" s="72"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="H43" s="81" t="s">
+      <c r="H43" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I43" s="86" t="s">
+      <c r="I43" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="J43" s="82" t="s">
+      <c r="J43" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K43" s="83" t="s">
+      <c r="K43" s="6" t="s">
         <v>51</v>
       </c>
       <c r="L43" s="3"/>
@@ -5806,31 +5773,31 @@
       <c r="Z43" s="9"/>
     </row>
     <row r="44" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="93"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="77" t="s">
-        <v>272</v>
-      </c>
-      <c r="D44" s="77" t="s">
-        <v>414</v>
-      </c>
-      <c r="E44" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="F44" s="84" t="s">
-        <v>510</v>
-      </c>
-      <c r="G44" s="77"/>
-      <c r="H44" s="86" t="s">
-        <v>441</v>
-      </c>
-      <c r="I44" s="81" t="s">
-        <v>500</v>
-      </c>
-      <c r="J44" s="82" t="s">
+      <c r="A44" s="73"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" s="46" t="s">
+        <v>509</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="J44" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="K44" s="83" t="s">
+      <c r="K44" s="6" t="s">
         <v>51</v>
       </c>
       <c r="L44" s="3"/>
@@ -5878,37 +5845,39 @@
       <c r="Z45" s="9"/>
     </row>
     <row r="46" spans="1:26" ht="87" x14ac:dyDescent="0.35">
-      <c r="A46" s="87" t="s">
-        <v>289</v>
-      </c>
-      <c r="B46" s="95" t="s">
-        <v>291</v>
-      </c>
-      <c r="C46" s="77" t="s">
-        <v>273</v>
-      </c>
-      <c r="D46" s="77" t="s">
-        <v>234</v>
-      </c>
-      <c r="E46" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="F46" s="84" t="s">
-        <v>527</v>
-      </c>
-      <c r="G46" s="77" t="s">
+      <c r="A46" s="71" t="s">
+        <v>288</v>
+      </c>
+      <c r="B46" s="74" t="s">
+        <v>290</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>526</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="H46" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="H46" s="86" t="s">
+      <c r="I46" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="I46" s="81" t="s">
-        <v>313</v>
-      </c>
-      <c r="J46" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="K46" s="6"/>
+      <c r="J46" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -5926,33 +5895,35 @@
       <c r="Z46" s="9"/>
     </row>
     <row r="47" spans="1:26" ht="87" x14ac:dyDescent="0.35">
-      <c r="A47" s="91"/>
-      <c r="B47" s="96"/>
-      <c r="C47" s="77" t="s">
-        <v>292</v>
-      </c>
-      <c r="D47" s="77" t="s">
-        <v>235</v>
-      </c>
-      <c r="E47" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="F47" s="84" t="s">
-        <v>528</v>
-      </c>
-      <c r="G47" s="77">
+      <c r="A47" s="72"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="46" t="s">
+        <v>527</v>
+      </c>
+      <c r="G47" s="22">
         <v>55667788</v>
       </c>
-      <c r="H47" s="86" t="s">
-        <v>312</v>
-      </c>
-      <c r="I47" s="81" t="s">
-        <v>314</v>
-      </c>
-      <c r="J47" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="K47" s="6"/>
+      <c r="H47" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="J47" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -5970,33 +5941,35 @@
       <c r="Z47" s="9"/>
     </row>
     <row r="48" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="91"/>
-      <c r="B48" s="96"/>
-      <c r="C48" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="D48" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="E48" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="F48" s="90" t="s">
-        <v>529</v>
-      </c>
-      <c r="G48" s="101" t="s">
+      <c r="A48" s="72"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" s="56" t="s">
+        <v>528</v>
+      </c>
+      <c r="G48" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H48" s="86" t="s">
-        <v>312</v>
-      </c>
-      <c r="I48" s="81" t="s">
-        <v>316</v>
-      </c>
-      <c r="J48" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="K48" s="6"/>
+      <c r="J48" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -6014,33 +5987,35 @@
       <c r="Z48" s="9"/>
     </row>
     <row r="49" spans="1:26" ht="87" x14ac:dyDescent="0.35">
-      <c r="A49" s="91"/>
-      <c r="B49" s="96"/>
-      <c r="C49" s="77" t="s">
-        <v>294</v>
-      </c>
-      <c r="D49" s="77" t="s">
-        <v>237</v>
-      </c>
-      <c r="E49" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="F49" s="84" t="s">
-        <v>530</v>
-      </c>
-      <c r="G49" s="77" t="s">
-        <v>219</v>
-      </c>
-      <c r="H49" s="86" t="s">
-        <v>312</v>
-      </c>
-      <c r="I49" s="97" t="s">
-        <v>559</v>
-      </c>
-      <c r="J49" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="K49" s="6"/>
+      <c r="A49" s="72"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="J49" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
@@ -6058,33 +6033,35 @@
       <c r="Z49" s="9"/>
     </row>
     <row r="50" spans="1:26" ht="87" x14ac:dyDescent="0.35">
-      <c r="A50" s="91"/>
-      <c r="B50" s="96"/>
-      <c r="C50" s="77" t="s">
-        <v>295</v>
-      </c>
-      <c r="D50" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="E50" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="F50" s="90" t="s">
-        <v>531</v>
-      </c>
-      <c r="G50" s="77" t="s">
-        <v>220</v>
-      </c>
-      <c r="H50" s="86" t="s">
-        <v>312</v>
-      </c>
-      <c r="I50" s="81" t="s">
-        <v>470</v>
-      </c>
-      <c r="J50" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="K50" s="6"/>
+      <c r="A50" s="72"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F50" s="56" t="s">
+        <v>530</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="J50" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
@@ -6102,33 +6079,35 @@
       <c r="Z50" s="9"/>
     </row>
     <row r="51" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="91"/>
-      <c r="B51" s="96"/>
-      <c r="C51" s="77" t="s">
-        <v>296</v>
-      </c>
-      <c r="D51" s="85" t="s">
-        <v>471</v>
-      </c>
-      <c r="E51" s="89" t="s">
-        <v>511</v>
-      </c>
-      <c r="F51" s="89" t="s">
-        <v>532</v>
-      </c>
-      <c r="G51" s="77" t="s">
-        <v>318</v>
-      </c>
-      <c r="H51" s="81" t="s">
-        <v>242</v>
-      </c>
-      <c r="I51" s="80" t="s">
-        <v>434</v>
-      </c>
-      <c r="J51" s="82" t="s">
+      <c r="A51" s="72"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="J51" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K51" s="6"/>
+      <c r="K51" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -6146,31 +6125,31 @@
       <c r="Z51" s="9"/>
     </row>
     <row r="52" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="91"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="77" t="s">
-        <v>297</v>
-      </c>
-      <c r="D52" s="85" t="s">
+      <c r="A52" s="72"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>471</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="F52" s="56" t="s">
+        <v>532</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="E52" s="89" t="s">
-        <v>511</v>
-      </c>
-      <c r="F52" s="90" t="s">
-        <v>533</v>
-      </c>
-      <c r="G52" s="77" t="s">
-        <v>319</v>
-      </c>
-      <c r="H52" s="81" t="s">
+      <c r="I52" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="I52" s="80" t="s">
-        <v>474</v>
-      </c>
-      <c r="J52" s="82" t="s">
-        <v>171</v>
+      <c r="J52" s="24" t="s">
+        <v>170</v>
       </c>
       <c r="K52" s="6"/>
       <c r="L52" s="3"/>
@@ -6190,31 +6169,31 @@
       <c r="Z52" s="9"/>
     </row>
     <row r="53" spans="1:26" ht="116" x14ac:dyDescent="0.35">
-      <c r="A53" s="93"/>
-      <c r="B53" s="98"/>
-      <c r="C53" s="77" t="s">
-        <v>299</v>
-      </c>
-      <c r="D53" s="85" t="s">
+      <c r="A53" s="73"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="F53" s="46" t="s">
+        <v>533</v>
+      </c>
+      <c r="G53" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="E53" s="89" t="s">
-        <v>512</v>
-      </c>
-      <c r="F53" s="84" t="s">
-        <v>534</v>
-      </c>
-      <c r="G53" s="77" t="s">
+      <c r="H53" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I53" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="H53" s="81" t="s">
-        <v>325</v>
-      </c>
-      <c r="I53" s="80" t="s">
-        <v>324</v>
-      </c>
-      <c r="J53" s="82" t="s">
-        <v>171</v>
+      <c r="J53" s="24" t="s">
+        <v>170</v>
       </c>
       <c r="K53" s="6"/>
       <c r="L53" s="3"/>
@@ -6263,31 +6242,31 @@
     </row>
     <row r="55" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A55" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="C55" s="65" t="s">
+        <v>299</v>
       </c>
       <c r="D55" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="E55" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="F55" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="G55" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="F55" s="46" t="s">
-        <v>475</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>253</v>
-      </c>
       <c r="H55" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I55" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="J55" s="24" t="s">
         <v>51</v>
@@ -6340,30 +6319,30 @@
       <c r="Z56" s="9"/>
     </row>
     <row r="57" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="66" t="s">
-        <v>305</v>
-      </c>
-      <c r="B57" s="69" t="s">
+      <c r="A57" s="71" t="s">
         <v>304</v>
       </c>
-      <c r="C57" s="22" t="s">
-        <v>301</v>
+      <c r="B57" s="75" t="s">
+        <v>303</v>
+      </c>
+      <c r="C57" s="65" t="s">
+        <v>300</v>
       </c>
       <c r="D57" s="39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F57" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G57" s="22"/>
       <c r="H57" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J57" s="24" t="s">
         <v>51</v>
@@ -6388,26 +6367,26 @@
       <c r="Z57" s="9"/>
     </row>
     <row r="58" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A58" s="67"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="22" t="s">
-        <v>302</v>
+      <c r="A58" s="72"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="65" t="s">
+        <v>301</v>
       </c>
       <c r="D58" s="39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F58" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G58" s="22"/>
       <c r="H58" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I58" s="10" t="s">
         <v>205</v>
-      </c>
-      <c r="I58" s="10" t="s">
-        <v>206</v>
       </c>
       <c r="J58" s="24" t="s">
         <v>51</v>
@@ -6432,26 +6411,26 @@
       <c r="Z58" s="9"/>
     </row>
     <row r="59" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="68"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="22" t="s">
-        <v>303</v>
+      <c r="A59" s="73"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="65" t="s">
+        <v>302</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>86</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G59" s="22"/>
       <c r="H59" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J59" s="24" t="s">
         <v>51</v>
@@ -6505,29 +6484,29 @@
     </row>
     <row r="61" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B61" s="60" t="s">
-        <v>443</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>309</v>
+        <v>442</v>
+      </c>
+      <c r="C61" s="65" t="s">
+        <v>308</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F61" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G61" s="22"/>
       <c r="H61" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="I61" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="J61" s="24" t="s">
         <v>65</v>
@@ -6579,29 +6558,29 @@
     </row>
     <row r="63" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A63" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F63" s="46" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G63" s="22"/>
       <c r="H63" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J63" s="24" t="s">
         <v>51</v>
@@ -6653,31 +6632,31 @@
     </row>
     <row r="65" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D65" s="39" t="s">
+        <v>479</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F65" s="46" t="s">
         <v>480</v>
       </c>
-      <c r="E65" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="F65" s="46" t="s">
+      <c r="G65" s="39" t="s">
         <v>481</v>
       </c>
-      <c r="G65" s="39" t="s">
+      <c r="H65" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="H65" s="8" t="s">
+      <c r="I65" s="8" t="s">
         <v>483</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>484</v>
       </c>
       <c r="J65" s="22" t="s">
         <v>51</v>
@@ -6728,37 +6707,39 @@
       <c r="Z66" s="9"/>
     </row>
     <row r="67" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="66" t="s">
-        <v>438</v>
-      </c>
-      <c r="B67" s="66" t="s">
+      <c r="A67" s="71" t="s">
+        <v>437</v>
+      </c>
+      <c r="B67" s="71" t="s">
+        <v>253</v>
+      </c>
+      <c r="C67" s="84" t="s">
+        <v>443</v>
+      </c>
+      <c r="D67" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="C67" s="66" t="s">
-        <v>444</v>
-      </c>
-      <c r="D67" s="36" t="s">
+      <c r="E67" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="F67" s="46" t="s">
+        <v>484</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="H67" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="E67" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="F67" s="46" t="s">
-        <v>485</v>
-      </c>
-      <c r="G67" s="22" t="s">
+      <c r="I67" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="H67" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>328</v>
-      </c>
       <c r="J67" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="K67" s="6"/>
+        <v>170</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
@@ -6776,31 +6757,35 @@
       <c r="Z67" s="9"/>
     </row>
     <row r="68" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="68"/>
-      <c r="B68" s="68"/>
-      <c r="C68" s="68"/>
+      <c r="A68" s="73"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="36" t="s">
+        <v>569</v>
+      </c>
       <c r="D68" s="36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F68" s="46" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J68" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="K68" s="6"/>
+        <v>170</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
@@ -10578,10 +10563,9 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:J6">
     <sortCondition ref="J2:J6"/>
   </sortState>
-  <mergeCells count="21">
+  <mergeCells count="20">
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C67:C68"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="B46:B53"/>
@@ -10611,8 +10595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CCAD22-2BEF-41B3-88C6-64D29A32E97D}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10623,7 +10607,7 @@
     <col min="4" max="4" width="74.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.36328125" customWidth="1"/>
-    <col min="7" max="7" width="28.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="59.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="53.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.54296875" customWidth="1"/>
@@ -10662,7 +10646,7 @@
         <v>50</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -10670,26 +10654,26 @@
         <v>4</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2" s="38"/>
       <c r="H2" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>51</v>
@@ -10703,28 +10687,28 @@
         <v>9</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" s="56" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>51</v>
@@ -10747,32 +10731,32 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="71" t="s">
-        <v>380</v>
+      <c r="B5" s="77" t="s">
+        <v>379</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J5" s="22" t="s">
         <v>51</v>
@@ -10782,28 +10766,28 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A6" s="67"/>
-      <c r="B6" s="72"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F6" s="56" t="s">
+        <v>491</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>492</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>493</v>
       </c>
       <c r="J6" s="22" t="s">
         <v>51</v>
@@ -10813,57 +10797,57 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="67"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="22" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>400</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>401</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="68"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>78</v>
       </c>
       <c r="H8" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="J8" s="22" t="s">
         <v>51</v>
@@ -10886,30 +10870,30 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>384</v>
+      <c r="B10" s="66" t="s">
+        <v>383</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J10" s="22" t="s">
         <v>51</v>
@@ -10918,29 +10902,29 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="65"/>
-      <c r="B11" s="70"/>
+    <row r="11" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="69"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J11" s="22" t="s">
         <v>65</v>
@@ -10950,28 +10934,28 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="65"/>
-      <c r="B12" s="70"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J12" s="22" t="s">
         <v>65</v>
@@ -10994,209 +10978,209 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="71" t="s">
-        <v>388</v>
+      <c r="B14" s="77" t="s">
+        <v>387</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="F14" s="56" t="s">
+        <v>513</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="F14" s="56" t="s">
-        <v>514</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>347</v>
-      </c>
       <c r="I14" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="67"/>
-      <c r="B15" s="72"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G15" s="22">
         <v>66788900</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="67"/>
-      <c r="B16" s="72"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E16" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>514</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="F16" s="56" t="s">
-        <v>515</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>347</v>
-      </c>
       <c r="I16" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
-      <c r="B17" s="72"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>515</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="F17" s="56" t="s">
-        <v>516</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>351</v>
-      </c>
       <c r="J17" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="67"/>
-      <c r="B18" s="72"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>541</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>542</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>353</v>
-      </c>
       <c r="J18" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="67"/>
-      <c r="B19" s="72"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F19" s="56" t="s">
+        <v>542</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="G19" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="J19" s="103" t="s">
+      <c r="J19" s="63" t="s">
         <v>51</v>
       </c>
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="68"/>
-      <c r="B20" s="64"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K20" s="6"/>
     </row>
@@ -11218,28 +11202,28 @@
         <v>43</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F22" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="H22" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>130</v>
       </c>
       <c r="J22" s="22" t="s">
         <v>65</v>
@@ -11263,31 +11247,31 @@
     </row>
     <row r="24" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E24" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="22" t="s">
+      <c r="H24" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="I24" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="J24" s="22" t="s">
         <v>51</v>
@@ -11311,31 +11295,31 @@
     </row>
     <row r="26" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F26" s="56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G26" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="I26" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>547</v>
       </c>
       <c r="J26" s="22" t="s">
         <v>51</v>
@@ -11359,29 +11343,29 @@
     </row>
     <row r="28" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E28" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="56" t="s">
         <v>139</v>
-      </c>
-      <c r="F28" s="56" t="s">
-        <v>140</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="J28" s="22" t="s">
         <v>51</v>
@@ -11404,30 +11388,30 @@
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A30" s="66" t="s">
-        <v>283</v>
-      </c>
-      <c r="B30" s="71" t="s">
-        <v>384</v>
+      <c r="A30" s="71" t="s">
+        <v>282</v>
+      </c>
+      <c r="B30" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F30" s="56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J30" s="22" t="s">
         <v>51</v>
@@ -11437,28 +11421,28 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A31" s="67"/>
-      <c r="B31" s="73"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="22" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F31" s="56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J31" s="22" t="s">
         <v>65</v>
@@ -11468,28 +11452,28 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A32" s="68"/>
-      <c r="B32" s="74"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F32" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J32" s="22" t="s">
         <v>65</v>
@@ -11513,31 +11497,31 @@
     </row>
     <row r="34" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A34" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F34" s="56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J34" s="22" t="s">
         <v>51</v>
@@ -11547,32 +11531,32 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="66" t="s">
-        <v>287</v>
-      </c>
-      <c r="B35" s="62" t="s">
-        <v>427</v>
+      <c r="A35" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="B35" s="66" t="s">
+        <v>426</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F35" s="56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J35" s="22" t="s">
         <v>51</v>
@@ -11582,28 +11566,28 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="67"/>
-      <c r="B36" s="62"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F36" s="56" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G36" s="22" t="s">
         <v>78</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J36" s="22" t="s">
         <v>51</v>
@@ -11613,29 +11597,29 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="68"/>
-      <c r="B37" s="62"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D37" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" s="56" t="s">
         <v>417</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="F37" s="56" t="s">
-        <v>418</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="J37" s="22" t="s">
         <v>419</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="J37" s="22" t="s">
-        <v>420</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>51</v>
@@ -11655,177 +11639,177 @@
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="66" t="s">
-        <v>289</v>
-      </c>
-      <c r="B39" s="71" t="s">
-        <v>361</v>
+      <c r="A39" s="71" t="s">
+        <v>288</v>
+      </c>
+      <c r="B39" s="77" t="s">
+        <v>360</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="F39" s="56" t="s">
+        <v>534</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="E39" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="F39" s="56" t="s">
-        <v>535</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="H39" s="10" t="s">
+      <c r="I39" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="I39" s="7" t="s">
-        <v>364</v>
-      </c>
       <c r="J39" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="67"/>
-      <c r="B40" s="73"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="78"/>
       <c r="C40" s="22" t="s">
         <v>34</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F40" s="56" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G40" s="22">
         <v>55667788</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J40" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="67"/>
-      <c r="B41" s="73"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="78"/>
       <c r="C41" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="F41" s="56" t="s">
+        <v>536</v>
+      </c>
+      <c r="G41" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="I41" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="E41" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="F41" s="56" t="s">
+      <c r="J41" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="72"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="F42" s="56" t="s">
         <v>537</v>
       </c>
-      <c r="G41" s="42" t="s">
-        <v>315</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="J41" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="67"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D42" s="22" t="s">
+      <c r="G42" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="J42" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="72"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="E42" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="F42" s="56" t="s">
+      <c r="E43" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="F43" s="56" t="s">
         <v>538</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G43" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="H42" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="I42" s="8" t="s">
+      <c r="H43" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="I43" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="J42" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="67"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="D43" s="22" t="s">
+      <c r="J43" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+      <c r="A44" s="72"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D44" s="39" t="s">
         <v>370</v>
       </c>
-      <c r="E43" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="F43" s="56" t="s">
-        <v>539</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="J43" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="1:11" ht="116" x14ac:dyDescent="0.35">
-      <c r="A44" s="67"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="D44" s="39" t="s">
+      <c r="E44" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="F44" s="56" t="s">
+        <v>559</v>
+      </c>
+      <c r="G44" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="F44" s="56" t="s">
-        <v>560</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>373</v>
-      </c>
       <c r="H44" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J44" s="24" t="s">
         <v>51</v>
@@ -11833,28 +11817,28 @@
       <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11" ht="116" x14ac:dyDescent="0.35">
-      <c r="A45" s="67"/>
-      <c r="B45" s="73"/>
+      <c r="A45" s="72"/>
+      <c r="B45" s="78"/>
       <c r="C45" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D45" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>560</v>
+      </c>
+      <c r="G45" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="E45" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="F45" s="46" t="s">
+      <c r="H45" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="G45" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>562</v>
-      </c>
       <c r="I45" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J45" s="24" t="s">
         <v>51</v>
@@ -11862,31 +11846,31 @@
       <c r="K45" s="16"/>
     </row>
     <row r="46" spans="1:11" ht="116" x14ac:dyDescent="0.35">
-      <c r="A46" s="68"/>
-      <c r="B46" s="74"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="79"/>
       <c r="C46" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D46" s="53" t="s">
+        <v>420</v>
+      </c>
+      <c r="E46" s="47" t="s">
         <v>421</v>
       </c>
-      <c r="E46" s="47" t="s">
+      <c r="F46" s="48" t="s">
+        <v>539</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="H46" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="F46" s="48" t="s">
-        <v>540</v>
-      </c>
-      <c r="G46" s="22" t="s">
+      <c r="I46" s="54" t="s">
         <v>424</v>
       </c>
-      <c r="H46" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="I46" s="54" t="s">
-        <v>425</v>
-      </c>
       <c r="J46" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K46" s="16"/>
     </row>
@@ -11905,31 +11889,31 @@
     </row>
     <row r="48" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A48" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F48" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="J48" s="24" t="s">
         <v>51</v>
@@ -11952,30 +11936,30 @@
       <c r="K49" s="6"/>
     </row>
     <row r="50" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A50" s="66" t="s">
-        <v>305</v>
-      </c>
-      <c r="B50" s="73" t="s">
+      <c r="A50" s="71" t="s">
+        <v>304</v>
+      </c>
+      <c r="B50" s="78" t="s">
+        <v>389</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="D50" s="39" t="s">
         <v>390</v>
       </c>
-      <c r="C50" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="D50" s="39" t="s">
+      <c r="E50" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="F50" s="46" t="s">
         <v>391</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="F50" s="46" t="s">
-        <v>392</v>
       </c>
       <c r="G50" s="22"/>
       <c r="H50" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I50" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="J50" s="24" t="s">
         <v>51</v>
@@ -11985,26 +11969,26 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="67"/>
-      <c r="B51" s="72"/>
+      <c r="A51" s="72"/>
+      <c r="B51" s="81"/>
       <c r="C51" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D51" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="F51" s="46" t="s">
         <v>393</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="F51" s="46" t="s">
-        <v>394</v>
       </c>
       <c r="G51" s="22"/>
       <c r="H51" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="I51" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="J51" s="24" t="s">
         <v>51</v>
@@ -12014,26 +11998,26 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="68"/>
-      <c r="B52" s="64"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="68"/>
       <c r="C52" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F52" s="46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G52" s="22"/>
       <c r="H52" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J52" s="24" t="s">
         <v>51</v>
@@ -12057,29 +12041,29 @@
     </row>
     <row r="54" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B54" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="F54" s="46" t="s">
         <v>439</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="F54" s="46" t="s">
-        <v>440</v>
       </c>
       <c r="G54" s="22"/>
       <c r="H54" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J54" s="24" t="s">
         <v>65</v>
@@ -12101,29 +12085,29 @@
     </row>
     <row r="56" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A56" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B56" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="D56" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="C56" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="D56" s="22" t="s">
+      <c r="E56" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="F56" s="46" t="s">
         <v>436</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="F56" s="46" t="s">
-        <v>437</v>
       </c>
       <c r="G56" s="22"/>
       <c r="H56" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J56" s="24" t="s">
         <v>51</v>
@@ -12145,31 +12129,31 @@
     </row>
     <row r="58" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A58" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B58" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D58" s="39" t="s">
         <v>565</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="D58" s="39" t="s">
-        <v>566</v>
-      </c>
       <c r="E58" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F58" s="46" t="s">
         <v>81</v>
       </c>
       <c r="G58" s="39" t="s">
+        <v>566</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="I58" s="8" t="s">
         <v>568</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>569</v>
       </c>
       <c r="J58" s="22" t="s">
         <v>51</v>
@@ -12190,62 +12174,62 @@
       <c r="K59" s="16"/>
     </row>
     <row r="60" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A60" s="75" t="s">
-        <v>438</v>
-      </c>
-      <c r="B60" s="71" t="s">
-        <v>429</v>
-      </c>
-      <c r="C60" s="66" t="s">
-        <v>300</v>
+      <c r="A60" s="82" t="s">
+        <v>437</v>
+      </c>
+      <c r="B60" s="77" t="s">
+        <v>428</v>
+      </c>
+      <c r="C60" s="71" t="s">
+        <v>299</v>
       </c>
       <c r="D60" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="E60" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="F60" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="G60" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="E60" s="57" t="s">
-        <v>346</v>
-      </c>
-      <c r="F60" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="G60" s="37" t="s">
+      <c r="H60" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="I60" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="J60" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="K60" s="16"/>
+    </row>
+    <row r="61" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A61" s="83"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="H60" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="I60" s="45" t="s">
+      <c r="E61" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="F61" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="I61" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="J60" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="K60" s="16"/>
-    </row>
-    <row r="61" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A61" s="76"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="F61" s="46" t="s">
-        <v>360</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="J61" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K61" s="16"/>
     </row>
@@ -12255,7 +12239,7 @@
       <c r="C62" s="9"/>
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="102"/>
+      <c r="F62" s="62"/>
       <c r="G62" s="16"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
@@ -12310,25 +12294,100 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="B14:B20"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A39:A46"/>
-    <mergeCell ref="B39:B46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFEB0CA-61B6-4C39-8248-9299BCF4F67C}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7919ABB7-E03F-4F86-B88D-BD3EB4363512}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>